--- a/data/georgia_census/shida-qartli/kaspi/population_total.xlsx
+++ b/data/georgia_census/shida-qartli/kaspi/population_total.xlsx
@@ -1348,13 +1348,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA99DAC-4F5E-4730-98E6-703AD4858B23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAFE9922-D775-4C67-980C-4F3C50244E81}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7B21FF8-0FAB-4B5C-B355-1B7391165865}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D488E33-B151-4FCD-90A2-ADABEACF7E8E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C44D19B8-FE8B-4BAD-B41D-0A3958B74CF9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{448E16D7-7CEA-4AD8-8013-D77F955DD0CB}"/>
 </file>